--- a/game66Utils.Tests/TestData/test.xlsx
+++ b/game66Utils.Tests/TestData/test.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id1</t>
   </si>
   <si>
     <t>id3</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>id5</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,12 +370,28 @@
         <v>20.5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>20.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
